--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2737307.776280104</v>
+        <v>2732675.909250637</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -679,35 +679,35 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>6.478598521151554</v>
+        <v>6.478598521151547</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,52 +746,52 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="F3" t="n">
+      <c r="S3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="T3" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>13.35464426286299</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.35464426286299</v>
+      </c>
+      <c r="D6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,34 +1074,34 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>13.58434214447045</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>13.35464426286299</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="K7" t="n">
-        <v>14.93225064571201</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>104.0154267588386</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>104.0154267588386</v>
+        <v>41.11326967654659</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.62747247092933</v>
+        <v>43.62747247092855</v>
       </c>
       <c r="S8" t="n">
-        <v>47.9893154182557</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="W8" t="n">
-        <v>104.0154267588386</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>104.0154267588386</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.24006124125218</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>43.97281151398462</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="V9" t="n">
-        <v>104.0154267588386</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="X9" t="n">
-        <v>33.37672664793282</v>
+        <v>47.64397637520194</v>
       </c>
       <c r="Y9" t="n">
-        <v>104.0154267588386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>68.98239880211266</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.63438908707435</v>
+        <v>22.63438908707388</v>
       </c>
       <c r="R10" t="n">
-        <v>104.0154267588386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>104.0154267588386</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>104.0154267588386</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>68.98239880211072</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>160.3783204776935</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>107.3363007608859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>112.5284434523311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179425</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>65.38324202937314</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U39" t="n">
         <v>225.7478006422472</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428618</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495696699</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U42" t="n">
         <v>225.7478006422472</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>177.9413471369519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695507</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701467</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174124</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128541</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U45" t="n">
         <v>225.7478006422472</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824172</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.285756796907</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.78865567647887</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="C2" t="n">
-        <v>38.78865567647887</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="D2" t="n">
-        <v>38.78865567647887</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="E2" t="n">
-        <v>38.78865567647887</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8431549272754</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="G2" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H2" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I2" t="n">
         <v>1.212955882185558</v>
@@ -4333,49 +4333,49 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K2" t="n">
-        <v>1.212955882185558</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="L2" t="n">
-        <v>1.212955882185558</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="M2" t="n">
-        <v>10.45600866564848</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N2" t="n">
-        <v>25.46633770769475</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="O2" t="n">
-        <v>40.47666674974103</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P2" t="n">
-        <v>55.48699579178731</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="Q2" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="R2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V2" t="n">
-        <v>54.10375519902379</v>
+        <v>38.78865567647888</v>
       </c>
       <c r="W2" t="n">
-        <v>54.10375519902379</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="X2" t="n">
-        <v>54.10375519902379</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.78865567647887</v>
+        <v>23.47355615393395</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.15825444982032</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C3" t="n">
-        <v>47.15825444982032</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D3" t="n">
-        <v>47.15825444982032</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E3" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H3" t="n">
         <v>1.212955882185558</v>
@@ -4409,19 +4409,19 @@
         <v>1.212955882185558</v>
       </c>
       <c r="J3" t="n">
-        <v>1.212955882185558</v>
+        <v>7.519576199182469</v>
       </c>
       <c r="K3" t="n">
-        <v>1.212955882185558</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="L3" t="n">
-        <v>1.212955882185558</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="M3" t="n">
-        <v>1.212955882185558</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="N3" t="n">
-        <v>15.61680698313905</v>
+        <v>22.52990524122875</v>
       </c>
       <c r="O3" t="n">
         <v>30.62713602518533</v>
@@ -4433,28 +4433,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R3" t="n">
-        <v>47.15825444982032</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S3" t="n">
-        <v>47.15825444982032</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T3" t="n">
-        <v>47.15825444982032</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="U3" t="n">
-        <v>47.15825444982032</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="V3" t="n">
-        <v>47.15825444982032</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="W3" t="n">
-        <v>47.15825444982032</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="X3" t="n">
-        <v>47.15825444982032</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="Y3" t="n">
-        <v>47.15825444982032</v>
+        <v>14.70249554164312</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="C4" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="D4" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="E4" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="F4" t="n">
-        <v>1.212955882185558</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="G4" t="n">
-        <v>1.212955882185558</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="H4" t="n">
-        <v>1.212955882185558</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="I4" t="n">
-        <v>1.212955882185558</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="J4" t="n">
         <v>1.212955882185558</v>
@@ -4503,19 +4503,19 @@
         <v>46.24394300832439</v>
       </c>
       <c r="O4" t="n">
-        <v>55.7803216816043</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P4" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="Q4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="R4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S4" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T4" t="n">
         <v>45.33269458673296</v>
@@ -4527,13 +4527,13 @@
         <v>45.33269458673296</v>
       </c>
       <c r="W4" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X4" t="n">
-        <v>14.70249554164312</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.15825444982032</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="C5" t="n">
-        <v>47.15825444982032</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="D5" t="n">
         <v>31.8431549272754</v>
@@ -4573,16 +4573,16 @@
         <v>16.22328492423183</v>
       </c>
       <c r="L5" t="n">
+        <v>16.22328492423183</v>
+      </c>
+      <c r="M5" t="n">
+        <v>16.22328492423183</v>
+      </c>
+      <c r="N5" t="n">
         <v>25.46633770769475</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>40.47666674974103</v>
-      </c>
-      <c r="N5" t="n">
-        <v>40.47666674974103</v>
-      </c>
-      <c r="O5" t="n">
-        <v>55.48699579178731</v>
       </c>
       <c r="P5" t="n">
         <v>55.48699579178731</v>
@@ -4594,25 +4594,25 @@
         <v>60.64779410927788</v>
       </c>
       <c r="S5" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T5" t="n">
-        <v>60.64779410927788</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="U5" t="n">
-        <v>60.64779410927788</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="V5" t="n">
-        <v>47.15825444982032</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="W5" t="n">
-        <v>47.15825444982032</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="X5" t="n">
-        <v>47.15825444982032</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.15825444982032</v>
+        <v>31.8431549272754</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.70249554164312</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="C6" t="n">
-        <v>14.70249554164312</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="D6" t="n">
-        <v>14.70249554164312</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="E6" t="n">
-        <v>14.70249554164312</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="F6" t="n">
-        <v>14.70249554164312</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G6" t="n">
-        <v>14.70249554164312</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H6" t="n">
-        <v>14.70249554164312</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I6" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="J6" t="n">
-        <v>7.519576199182469</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K6" t="n">
-        <v>7.519576199182469</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="L6" t="n">
-        <v>22.52990524122875</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="M6" t="n">
-        <v>37.54023428327503</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="N6" t="n">
-        <v>37.54023428327503</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="O6" t="n">
-        <v>52.55056332532131</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="P6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="Q6" t="n">
         <v>60.64779410927788</v>
@@ -4676,22 +4676,22 @@
         <v>45.33269458673296</v>
       </c>
       <c r="T6" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U6" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V6" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W6" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X6" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="7">
@@ -4704,28 +4704,28 @@
         <v>45.33269458673296</v>
       </c>
       <c r="C7" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="D7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="E7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="F7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="G7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="H7" t="n">
-        <v>45.33269458673296</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="I7" t="n">
-        <v>31.61113686504564</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="J7" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K7" t="n">
         <v>1.212955882185558</v>
@@ -4746,7 +4746,7 @@
         <v>60.64779410927788</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="R7" t="n">
         <v>45.33269458673296</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>218.4534094110882</v>
+        <v>56.79529011874564</v>
       </c>
       <c r="C8" t="n">
-        <v>218.4534094110882</v>
+        <v>56.79529011874564</v>
       </c>
       <c r="D8" t="n">
-        <v>218.4534094110882</v>
+        <v>56.79529011874564</v>
       </c>
       <c r="E8" t="n">
-        <v>218.4534094110882</v>
+        <v>56.79529011874564</v>
       </c>
       <c r="F8" t="n">
-        <v>113.3873217758976</v>
+        <v>49.84978936954217</v>
       </c>
       <c r="G8" t="n">
-        <v>8.321234140707091</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="H8" t="n">
-        <v>8.321234140707091</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="I8" t="n">
-        <v>8.321234140707091</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="J8" t="n">
-        <v>111.2965066319573</v>
+        <v>111.2965066319592</v>
       </c>
       <c r="K8" t="n">
-        <v>111.2965066319573</v>
+        <v>181.4453714793748</v>
       </c>
       <c r="L8" t="n">
-        <v>142.1198801881868</v>
+        <v>212.2687450356063</v>
       </c>
       <c r="M8" t="n">
-        <v>208.0862597418541</v>
+        <v>278.2351245892758</v>
       </c>
       <c r="N8" t="n">
-        <v>311.0615322331043</v>
+        <v>349.882717508683</v>
       </c>
       <c r="O8" t="n">
-        <v>404.2022465684857</v>
+        <v>404.2022465684909</v>
       </c>
       <c r="P8" t="n">
-        <v>416.0617070353545</v>
+        <v>416.0617070353614</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.0617070353545</v>
+        <v>416.0617070353614</v>
       </c>
       <c r="R8" t="n">
-        <v>371.9935530243148</v>
+        <v>371.9935530243225</v>
       </c>
       <c r="S8" t="n">
-        <v>323.5194970462787</v>
+        <v>371.9935530243225</v>
       </c>
       <c r="T8" t="n">
-        <v>323.5194970462787</v>
+        <v>371.9935530243225</v>
       </c>
       <c r="U8" t="n">
-        <v>323.5194970462787</v>
+        <v>371.9935530243225</v>
       </c>
       <c r="V8" t="n">
-        <v>323.5194970462787</v>
+        <v>266.9274653891302</v>
       </c>
       <c r="W8" t="n">
-        <v>218.4534094110882</v>
+        <v>161.8613777539379</v>
       </c>
       <c r="X8" t="n">
-        <v>218.4534094110882</v>
+        <v>56.79529011874564</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.4534094110882</v>
+        <v>56.79529011874564</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>172.2156664640312</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="C9" t="n">
-        <v>172.2156664640312</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="D9" t="n">
-        <v>67.14957882884062</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="E9" t="n">
-        <v>67.14957882884062</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="F9" t="n">
-        <v>67.14957882884062</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="G9" t="n">
-        <v>67.14957882884062</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="H9" t="n">
-        <v>67.14957882884062</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="I9" t="n">
-        <v>8.321234140707091</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="J9" t="n">
-        <v>50.8286103856455</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="K9" t="n">
-        <v>59.0306280942344</v>
+        <v>16.52325184929717</v>
       </c>
       <c r="L9" t="n">
-        <v>116.3817942504396</v>
+        <v>73.8744180055038</v>
       </c>
       <c r="M9" t="n">
-        <v>202.664768247249</v>
+        <v>160.1573920023149</v>
       </c>
       <c r="N9" t="n">
-        <v>305.6400407384992</v>
+        <v>263.1326644935668</v>
       </c>
       <c r="O9" t="n">
-        <v>377.6225020168612</v>
+        <v>366.1079369848187</v>
       </c>
       <c r="P9" t="n">
-        <v>416.0617070353545</v>
+        <v>416.0617070353614</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.0617070353545</v>
+        <v>416.0617070353614</v>
       </c>
       <c r="R9" t="n">
-        <v>416.0617070353545</v>
+        <v>371.6447257081042</v>
       </c>
       <c r="S9" t="n">
-        <v>416.0617070353545</v>
+        <v>371.6447257081042</v>
       </c>
       <c r="T9" t="n">
-        <v>416.0617070353545</v>
+        <v>371.6447257081042</v>
       </c>
       <c r="U9" t="n">
-        <v>416.0617070353545</v>
+        <v>266.5786380729119</v>
       </c>
       <c r="V9" t="n">
-        <v>310.9956194001639</v>
+        <v>161.5125504377197</v>
       </c>
       <c r="W9" t="n">
-        <v>310.9956194001639</v>
+        <v>56.44646280252738</v>
       </c>
       <c r="X9" t="n">
-        <v>277.2817540992217</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="Y9" t="n">
-        <v>172.2156664640312</v>
+        <v>8.321234140707228</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.321234140707091</v>
+        <v>393.1986877554888</v>
       </c>
       <c r="C10" t="n">
-        <v>8.321234140707091</v>
+        <v>323.5194970462841</v>
       </c>
       <c r="D10" t="n">
-        <v>8.321234140707091</v>
+        <v>218.4534094110918</v>
       </c>
       <c r="E10" t="n">
-        <v>8.321234140707091</v>
+        <v>113.3873217758995</v>
       </c>
       <c r="F10" t="n">
-        <v>8.321234140707091</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="G10" t="n">
-        <v>8.321234140707091</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="H10" t="n">
-        <v>8.321234140707091</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="I10" t="n">
-        <v>8.321234140707091</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="J10" t="n">
-        <v>8.321234140707091</v>
+        <v>8.321234140707228</v>
       </c>
       <c r="K10" t="n">
-        <v>73.5358188443745</v>
+        <v>73.53581884437527</v>
       </c>
       <c r="L10" t="n">
-        <v>73.5358188443745</v>
+        <v>176.5110913356272</v>
       </c>
       <c r="M10" t="n">
-        <v>121.9661535639725</v>
+        <v>176.5110913356272</v>
       </c>
       <c r="N10" t="n">
-        <v>224.9414260552227</v>
+        <v>224.9414260552272</v>
       </c>
       <c r="O10" t="n">
-        <v>327.916698546473</v>
+        <v>327.9166985464792</v>
       </c>
       <c r="P10" t="n">
-        <v>416.0617070353545</v>
+        <v>416.0617070353614</v>
       </c>
       <c r="Q10" t="n">
-        <v>393.1986877554814</v>
+        <v>393.1986877554888</v>
       </c>
       <c r="R10" t="n">
-        <v>288.1326001202909</v>
+        <v>393.1986877554888</v>
       </c>
       <c r="S10" t="n">
-        <v>183.0665124851004</v>
+        <v>393.1986877554888</v>
       </c>
       <c r="T10" t="n">
-        <v>78.00042484990985</v>
+        <v>393.1986877554888</v>
       </c>
       <c r="U10" t="n">
-        <v>78.00042484990985</v>
+        <v>393.1986877554888</v>
       </c>
       <c r="V10" t="n">
-        <v>8.321234140707091</v>
+        <v>393.1986877554888</v>
       </c>
       <c r="W10" t="n">
-        <v>8.321234140707091</v>
+        <v>393.1986877554888</v>
       </c>
       <c r="X10" t="n">
-        <v>8.321234140707091</v>
+        <v>393.1986877554888</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.321234140707091</v>
+        <v>393.1986877554888</v>
       </c>
     </row>
     <row r="11">
@@ -5035,49 +5035,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990371</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6132,13 +6132,13 @@
         <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>366.9636532421608</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>199.7675539570408</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630498</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E37" t="n">
-        <v>2588.787486630498</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F37" t="n">
-        <v>2588.787486630498</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G37" t="n">
-        <v>2421.591387345378</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192635</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068019</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694718</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852267</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7241,34 +7241,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756271</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756271</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452564</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718097</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.528408326418</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565706</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400758</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797759</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703155</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797213</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819266</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311173</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075834</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014786</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355946</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106802</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694719</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852268</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398606</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028059</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797213</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797213</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756273</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468487</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962609</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636215</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190823</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190823</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7523,7 +7523,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
         <v>1781.463605996603</v>
@@ -7532,7 +7532,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
         <v>1111.614450297915</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797213</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782963</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038354</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797762</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487573</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510514</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1797.722346028744</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,55 +7636,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797213</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075832</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355945</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106802</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694719</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852268</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398606</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492591</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474796</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466586</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028059</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797213</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797213</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756273</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>562.8579153358571</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551617</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.56200917817</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732778</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732778</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732778</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107661</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7760,7 +7760,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
         <v>1781.463605996603</v>
@@ -7769,7 +7769,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
         <v>1111.614450297915</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647327</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368258</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>631.5645865368258</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>631.5645865368258</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797213</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782963</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038354</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797762</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.10824923517</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.10824923517</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579368</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373481</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.93136433652</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438503</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949724</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>217.342912363454</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5488567752802</v>
+        <v>228.7108053025997</v>
       </c>
       <c r="M2" t="n">
-        <v>214.9613358234932</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>219.4536810555071</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O2" t="n">
-        <v>221.538799378194</v>
+        <v>220.9261953972922</v>
       </c>
       <c r="P2" t="n">
         <v>226.149311848474</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>140.8394464083196</v>
       </c>
       <c r="L3" t="n">
         <v>122.1984598562864</v>
@@ -8069,10 +8069,10 @@
         <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>126.2993043714169</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>139.8355672148734</v>
+        <v>132.8526396814495</v>
       </c>
       <c r="P3" t="n">
         <v>134.7518686851471</v>
@@ -8151,10 +8151,10 @@
         <v>133.1833473911586</v>
       </c>
       <c r="O4" t="n">
-        <v>139.1628415322489</v>
+        <v>144.0794803480808</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8221,19 +8221,19 @@
         <v>217.342912363454</v>
       </c>
       <c r="L5" t="n">
-        <v>222.8852737282731</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>220.7868673978199</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>213.6281494811804</v>
       </c>
       <c r="O5" t="n">
         <v>221.538799378194</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>226.149311848474</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
         <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>137.3604083836059</v>
+        <v>136.7478044027041</v>
       </c>
       <c r="M6" t="n">
-        <v>138.2093953574145</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
         <v>111.7499598249992</v>
@@ -8312,10 +8312,10 @@
         <v>139.8355672148734</v>
       </c>
       <c r="P6" t="n">
-        <v>127.7689411517231</v>
+        <v>134.7518686851471</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>145.5280738211766</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>141.513652822896</v>
+        <v>141.5136528228966</v>
       </c>
       <c r="K8" t="n">
-        <v>4.949091926399916</v>
+        <v>75.80653116621215</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>31.64412077964161</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.21331846017735</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.66341988424384</v>
+        <v>39.6634198842425</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>84.27835645612723</v>
+        <v>41.34161277437065</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>31.3058699120085</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>11.63087376974564</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.46828871759081</v>
+        <v>24.46828871758997</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,16 +8616,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>22.09222636177284</v>
+        <v>126.1076531206124</v>
       </c>
       <c r="M10" t="n">
-        <v>68.92149019576459</v>
+        <v>20.00196017596777</v>
       </c>
       <c r="N10" t="n">
-        <v>115.604890173909</v>
+        <v>60.50899343486752</v>
       </c>
       <c r="O10" t="n">
-        <v>135.2384436656252</v>
+        <v>135.2384436656262</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.213606992678251e-11</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.45968844823058</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.20633287440128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>179.1866975757051</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>35.40333084624568</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>32.89260457060011</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409392617</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462238</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>108.2431272522923</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1352912260242078</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>775401.4122370803</v>
+        <v>775401.41223708</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584156</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754539.8762584156</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>754539.876258416</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442547</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442545</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.944744256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442557</v>
       </c>
     </row>
     <row r="3">
@@ -26371,40 +26371,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>357912.3110366664</v>
+        <v>357912.3110366695</v>
       </c>
       <c r="E3" t="n">
-        <v>1080121.758724496</v>
+        <v>1080121.758724493</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3967.032860481975</v>
+        <v>3967.032860481986</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22488.01565909347</v>
+        <v>22488.01565909385</v>
       </c>
       <c r="M3" t="n">
-        <v>266322.5358175752</v>
+        <v>266322.5358175747</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.660478331672493e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>405703.6705393202</v>
       </c>
       <c r="D4" t="n">
-        <v>310629.0408162418</v>
+        <v>310629.0408162408</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26438,28 +26438,28 @@
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.256391744235</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="K4" t="n">
-        <v>8727.256391744326</v>
-      </c>
       <c r="L4" t="n">
-        <v>8727.256391744319</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391743969</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744319</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744311</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>35312.90995413795</v>
       </c>
       <c r="D5" t="n">
-        <v>49123.28007136597</v>
+        <v>49123.28007136615</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26505,13 +26505,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239074</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239074</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>197514.8198629158</v>
       </c>
       <c r="C6" t="n">
-        <v>236342.8796445756</v>
+        <v>236342.8796445753</v>
       </c>
       <c r="D6" t="n">
-        <v>-40305.17178624005</v>
+        <v>-40305.1717862429</v>
       </c>
       <c r="E6" t="n">
-        <v>-524075.6001958924</v>
+        <v>-524422.9794502463</v>
       </c>
       <c r="F6" t="n">
-        <v>556046.1585286036</v>
+        <v>555698.7792742465</v>
       </c>
       <c r="G6" t="n">
-        <v>556046.1585286036</v>
+        <v>555698.7792742465</v>
       </c>
       <c r="H6" t="n">
-        <v>556046.1585286035</v>
+        <v>555698.7792742465</v>
       </c>
       <c r="I6" t="n">
-        <v>556046.1585286034</v>
+        <v>555698.7792742463</v>
       </c>
       <c r="J6" t="n">
-        <v>552079.1256681216</v>
+        <v>551731.7464137645</v>
       </c>
       <c r="K6" t="n">
-        <v>556046.158528603</v>
+        <v>555698.7792742464</v>
       </c>
       <c r="L6" t="n">
-        <v>533558.1428695098</v>
+        <v>533210.7636151526</v>
       </c>
       <c r="M6" t="n">
-        <v>289723.6227110282</v>
+        <v>289376.2434566718</v>
       </c>
       <c r="N6" t="n">
-        <v>556046.1585286036</v>
+        <v>555698.7792742464</v>
       </c>
       <c r="O6" t="n">
-        <v>556046.1585286034</v>
+        <v>555698.7792742469</v>
       </c>
       <c r="P6" t="n">
-        <v>556046.1585286041</v>
+        <v>555698.7792742464</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.759117484649431e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>420.7129414875499</v>
+        <v>420.712941487553</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26773,13 +26773,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>15.16194852731947</v>
       </c>
       <c r="D4" t="n">
-        <v>104.0154267588386</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099652</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099652</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.759117484649431e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>385.6916807684246</v>
+        <v>385.6916807684277</v>
       </c>
       <c r="E3" t="n">
-        <v>947.2625588541241</v>
+        <v>947.2625588541205</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.85347823151916</v>
+        <v>88.85347823152088</v>
       </c>
       <c r="E4" t="n">
-        <v>1068.69286134081</v>
+        <v>1068.692861340808</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.16194852731947</v>
+        <v>15.16194852731951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823151939</v>
+        <v>88.85347823152088</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.69286134081</v>
+        <v>1068.692861340808</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.759117484649431e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823151916</v>
+        <v>88.85347823152088</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.69286134081</v>
+        <v>1068.692861340808</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>189.8861735903263</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>125.8633331579598</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27438,16 +27438,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>321.2736599489833</v>
+        <v>321.2736599489834</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>334.0790201900936</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.0759901287341</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>153.1785393870043</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>142.4831319280815</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>129.9072638660644</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>96.34597857612498</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.12619963751658</v>
+        <v>80.3188953730601</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>155.1220240940137</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>184.6991524448524</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>130.2590994956118</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>152.7658777380392</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27560,7 +27560,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>75.5396121716354</v>
       </c>
       <c r="K4" t="n">
         <v>14.93225064571201</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>65.71188435578699</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27590,7 +27590,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>212.5138049577163</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>271.3610498092715</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>210.5477068617177</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.2300090892318</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>339.5210930933635</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27666,16 +27666,16 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>190.6498919990783</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>209.1249015071057</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>314.3976142072719</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151.3712351225479</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>159.3538547254527</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>132.2831170373193</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>129.9072638660644</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27715,7 +27715,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>73.4484329598244</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>184.6991524448524</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.0848725713084</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>133.4535244908929</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,13 +27794,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>139.9669470375605</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>73.73230790717892</v>
+        <v>75.5396121716354</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>65.71188435578699</v>
       </c>
       <c r="R7" t="n">
-        <v>159.2918501364599</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>302.8606189828728</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>309.5960024488088</v>
+        <v>372.4981595311008</v>
       </c>
       <c r="H8" t="n">
-        <v>322.1536909117094</v>
+        <v>322.1536909117092</v>
       </c>
       <c r="I8" t="n">
-        <v>145.2717260459887</v>
+        <v>145.2717260459883</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.4900661111151</v>
+        <v>170.4793815293705</v>
       </c>
       <c r="T8" t="n">
         <v>215.6921474481042</v>
@@ -27912,13 +27912,13 @@
         <v>251.2103482432375</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>223.7368317112945</v>
       </c>
       <c r="W8" t="n">
-        <v>245.2255419585744</v>
+        <v>245.2255419585726</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>265.7156739196287</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27937,7 +27937,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>43.42963880580012</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27949,10 +27949,10 @@
         <v>136.438587440011</v>
       </c>
       <c r="H9" t="n">
-        <v>103.4957282255947</v>
+        <v>103.4957282255946</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.24006124125195</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.97281151398503</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>154.874498394406</v>
+        <v>154.8744983944059</v>
       </c>
       <c r="T9" t="n">
         <v>196.5172268719248</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8818472307643</v>
+        <v>121.866420471924</v>
       </c>
       <c r="V9" t="n">
-        <v>128.7851603905866</v>
+        <v>128.7851603905849</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>147.6795564020792</v>
       </c>
       <c r="X9" t="n">
-        <v>172.3962585555446</v>
+        <v>158.1290088282755</v>
       </c>
       <c r="Y9" t="n">
-        <v>101.6672690184657</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>98.26442229651518</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>44.60004625937201</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>42.41853588772882</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>41.4056212640909</v>
       </c>
       <c r="G10" t="n">
         <v>167.2323166770878</v>
       </c>
       <c r="H10" t="n">
-        <v>155.4819715767048</v>
+        <v>155.4819715767047</v>
       </c>
       <c r="I10" t="n">
-        <v>132.6354190183925</v>
+        <v>132.6354190183923</v>
       </c>
       <c r="J10" t="n">
-        <v>39.72172854374367</v>
+        <v>39.72172854374328</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.16573169050429</v>
+        <v>143.1811584493427</v>
       </c>
       <c r="S10" t="n">
-        <v>106.7797498218773</v>
+        <v>210.7951765807159</v>
       </c>
       <c r="T10" t="n">
-        <v>120.6886039399486</v>
+        <v>224.7040306987872</v>
       </c>
       <c r="U10" t="n">
         <v>286.2776477556889</v>
       </c>
       <c r="V10" t="n">
-        <v>183.1552445217173</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30759,7 +30759,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.429578708524912e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31074,16 +31074,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31141,7 +31141,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
         <v>9.899534402948818</v>
@@ -31223,10 +31223,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
         <v>5.288210368587925</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.691308307487636</v>
+        <v>1.691308307487649</v>
       </c>
       <c r="H8" t="n">
-        <v>17.32111120405776</v>
+        <v>17.32111120405789</v>
       </c>
       <c r="I8" t="n">
-        <v>65.20416352441717</v>
+        <v>65.20416352441765</v>
       </c>
       <c r="J8" t="n">
-        <v>143.5476784626289</v>
+        <v>143.54767846263</v>
       </c>
       <c r="K8" t="n">
-        <v>215.1407591185806</v>
+        <v>215.1407591185822</v>
       </c>
       <c r="L8" t="n">
-        <v>266.9011357338554</v>
+        <v>266.9011357338574</v>
       </c>
       <c r="M8" t="n">
-        <v>296.9789398471387</v>
+        <v>296.9789398471409</v>
       </c>
       <c r="N8" t="n">
-        <v>301.7843695757879</v>
+        <v>301.7843695757902</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9664225932078</v>
+        <v>284.9664225932098</v>
       </c>
       <c r="P8" t="n">
-        <v>243.2122487521067</v>
+        <v>243.2122487521085</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.6422699902056</v>
+        <v>182.642269990207</v>
       </c>
       <c r="R8" t="n">
-        <v>106.2416454702203</v>
+        <v>106.2416454702211</v>
       </c>
       <c r="S8" t="n">
-        <v>38.54068805687456</v>
+        <v>38.54068805687484</v>
       </c>
       <c r="T8" t="n">
-        <v>7.403702116027133</v>
+        <v>7.403702116027187</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1353046645990109</v>
+        <v>0.1353046645990119</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9049297231996357</v>
+        <v>0.9049297231996424</v>
       </c>
       <c r="H9" t="n">
-        <v>8.739716010901747</v>
+        <v>8.739716010901811</v>
       </c>
       <c r="I9" t="n">
-        <v>31.1565716101629</v>
+        <v>31.15657161016313</v>
       </c>
       <c r="J9" t="n">
-        <v>85.49601389229542</v>
+        <v>85.49601389229605</v>
       </c>
       <c r="K9" t="n">
-        <v>146.126305346671</v>
+        <v>146.1263053466721</v>
       </c>
       <c r="L9" t="n">
-        <v>196.4848506447279</v>
+        <v>196.4848506447294</v>
       </c>
       <c r="M9" t="n">
-        <v>229.2885531107147</v>
+        <v>229.2885531107164</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3571388421719</v>
+        <v>235.3571388421736</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3058012912747</v>
+        <v>215.3058012912763</v>
       </c>
       <c r="P9" t="n">
-        <v>172.8018872309901</v>
+        <v>172.8018872309914</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.5134853684307</v>
+        <v>115.5134853684315</v>
       </c>
       <c r="R9" t="n">
-        <v>56.1850226386581</v>
+        <v>56.18502263865852</v>
       </c>
       <c r="S9" t="n">
-        <v>16.80867270943182</v>
+        <v>16.80867270943194</v>
       </c>
       <c r="T9" t="n">
-        <v>3.647501822896776</v>
+        <v>3.647501822896802</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05953485021050237</v>
+        <v>0.05953485021050281</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7586626813709916</v>
+        <v>0.7586626813709971</v>
       </c>
       <c r="H10" t="n">
-        <v>6.745200930734821</v>
+        <v>6.74520093073487</v>
       </c>
       <c r="I10" t="n">
-        <v>22.81505590886583</v>
+        <v>22.81505590886599</v>
       </c>
       <c r="J10" t="n">
-        <v>53.6374515729291</v>
+        <v>53.63745157292949</v>
       </c>
       <c r="K10" t="n">
-        <v>88.14280970837518</v>
+        <v>88.14280970837582</v>
       </c>
       <c r="L10" t="n">
-        <v>112.7924499194654</v>
+        <v>112.7924499194663</v>
       </c>
       <c r="M10" t="n">
-        <v>118.9238237716364</v>
+        <v>118.9238237716373</v>
       </c>
       <c r="N10" t="n">
-        <v>116.0960810501628</v>
+        <v>116.0960810501637</v>
       </c>
       <c r="O10" t="n">
-        <v>107.2335215450562</v>
+        <v>107.233521545057</v>
       </c>
       <c r="P10" t="n">
-        <v>91.75680284508789</v>
+        <v>91.75680284508856</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.52765416462004</v>
+        <v>63.5276541646205</v>
       </c>
       <c r="R10" t="n">
-        <v>34.11223292782658</v>
+        <v>34.11223292782682</v>
       </c>
       <c r="S10" t="n">
-        <v>13.22142145625628</v>
+        <v>13.22142145625637</v>
       </c>
       <c r="T10" t="n">
-        <v>3.241558729494236</v>
+        <v>3.24155872949426</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04138160080205414</v>
+        <v>0.04138160080205443</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4622569139909</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,19 +33031,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209139</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437255</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422594</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>339.9772972286914</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485297</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348443</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713535</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663291</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817588</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162576</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159444</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460044</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669233</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292903</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651532</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078753</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659455</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521105</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>460.462256913985</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473085</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862134</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071799</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485297</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418564</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742448</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121574</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869288</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355183</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392052</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106795</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532774</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M2" t="n">
-        <v>9.336416952992847</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.16194852731947</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="P2" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424823</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>14.54934454641767</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>15.16194852731947</v>
+        <v>8.179020993895534</v>
       </c>
       <c r="P3" t="n">
         <v>15.16194852731947</v>
@@ -34871,10 +34871,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="O4" t="n">
-        <v>9.632705730585771</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="P4" t="n">
-        <v>4.9166388158319</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>15.16194852731947</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>9.336416952992847</v>
-      </c>
-      <c r="M5" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="Q5" t="n">
         <v>5.212927593424824</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>15.16194852731947</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="M6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="P6" t="n">
-        <v>8.179020993895531</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>104.0154267588386</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>70.8574392398138</v>
       </c>
       <c r="L8" t="n">
-        <v>31.13472076386819</v>
+        <v>31.13472076387018</v>
       </c>
       <c r="M8" t="n">
-        <v>66.63270661986596</v>
+        <v>66.63270661986812</v>
       </c>
       <c r="N8" t="n">
-        <v>104.0154267588386</v>
+        <v>72.37130597919924</v>
       </c>
       <c r="O8" t="n">
-        <v>94.08152963169839</v>
+        <v>54.86821117152309</v>
       </c>
       <c r="P8" t="n">
-        <v>11.97925299683715</v>
+        <v>11.97925299683891</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>42.93674368175596</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>8.284866372312024</v>
+        <v>8.284866372313076</v>
       </c>
       <c r="L9" t="n">
-        <v>57.93047086485376</v>
+        <v>57.93047086485518</v>
       </c>
       <c r="M9" t="n">
-        <v>87.15451918869636</v>
+        <v>87.15451918869803</v>
       </c>
       <c r="N9" t="n">
-        <v>104.0154267588386</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="O9" t="n">
-        <v>72.70955684683028</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="P9" t="n">
-        <v>38.82747981665986</v>
+        <v>50.45835358640675</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>65.87331788249233</v>
+        <v>65.87331788249297</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="M10" t="n">
-        <v>48.91953001979596</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>104.0154267588386</v>
+        <v>48.91953001979799</v>
       </c>
       <c r="O10" t="n">
-        <v>104.0154267588386</v>
+        <v>104.0154267588403</v>
       </c>
       <c r="P10" t="n">
-        <v>89.03536210998138</v>
+        <v>89.03536210998205</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>322.6208179396319</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902289</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410397</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238466</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992811</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071406</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902979</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496679004</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>197.8432633066731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238466</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071406</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625082</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317654</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396428</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367782</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462703</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243177</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683827</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924738</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.866084390241</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>322.620817939626</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674343</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238466</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625082</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789242</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096355</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191321</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010458</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2732675.909250637</v>
+        <v>2734436.439553422</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.478598521151552</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6.478598521151547</v>
-      </c>
       <c r="W2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>13.35464426286299</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="S3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.58434214447045</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.16194852731947</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="G5" t="n">
         <v>15.16194852731947</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="S5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="F6" t="n">
         <v>15.16194852731947</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="D7" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>13.58434214447045</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>41.11326967654659</v>
+        <v>41.11326967654547</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.62747247092855</v>
+        <v>43.62747247092894</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>104.0154267588403</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="W8" t="n">
-        <v>104.0154267588403</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>104.0154267588403</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.97281151398462</v>
+        <v>43.97281151398482</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>104.0154267588403</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>104.0154267588403</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>104.0154267588403</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>47.64397637520194</v>
+        <v>47.64397637520097</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>68.98239880211266</v>
+        <v>68.98239880211169</v>
       </c>
       <c r="D10" t="n">
-        <v>104.0154267588403</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="E10" t="n">
-        <v>104.0154267588403</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="F10" t="n">
-        <v>104.0154267588403</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.63438908707388</v>
+        <v>22.6343890870741</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>111.3213230702132</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.44572777409376</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>55.52079624060383</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9607874088663</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428163</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>65.38324202937314</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>95.12712756824172</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.47355615393395</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="C2" t="n">
-        <v>23.47355615393395</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="D2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="E2" t="n">
-        <v>23.47355615393395</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="F2" t="n">
-        <v>16.52805540473048</v>
+        <v>23.07209431498457</v>
       </c>
       <c r="G2" t="n">
-        <v>1.212955882185558</v>
+        <v>7.756994792439651</v>
       </c>
       <c r="H2" t="n">
         <v>1.212955882185558</v>
@@ -4333,16 +4333,16 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K2" t="n">
-        <v>16.22328492423183</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="L2" t="n">
-        <v>31.23361396627811</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="M2" t="n">
-        <v>31.23361396627811</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="N2" t="n">
-        <v>31.23361396627811</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="O2" t="n">
         <v>45.6374650672316</v>
@@ -4354,28 +4354,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R2" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="S2" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="T2" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="U2" t="n">
+        <v>60.64779410927788</v>
+      </c>
+      <c r="V2" t="n">
         <v>45.33269458673296</v>
       </c>
-      <c r="S2" t="n">
+      <c r="W2" t="n">
         <v>45.33269458673296</v>
       </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>45.33269458673296</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
         <v>45.33269458673296</v>
-      </c>
-      <c r="V2" t="n">
-        <v>38.78865567647888</v>
-      </c>
-      <c r="W2" t="n">
-        <v>23.47355615393395</v>
-      </c>
-      <c r="X2" t="n">
-        <v>23.47355615393395</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>23.47355615393395</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="C3" t="n">
-        <v>1.212955882185558</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="D3" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="E3" t="n">
         <v>1.212955882185558</v>
@@ -4409,22 +4409,22 @@
         <v>1.212955882185558</v>
       </c>
       <c r="J3" t="n">
-        <v>7.519576199182469</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K3" t="n">
-        <v>22.52990524122875</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="L3" t="n">
-        <v>22.52990524122875</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="M3" t="n">
-        <v>22.52990524122875</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N3" t="n">
-        <v>22.52990524122875</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="O3" t="n">
-        <v>30.62713602518533</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P3" t="n">
         <v>45.6374650672316</v>
@@ -4436,25 +4436,25 @@
         <v>45.33269458673296</v>
       </c>
       <c r="S3" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T3" t="n">
-        <v>14.70249554164312</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U3" t="n">
-        <v>14.70249554164312</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V3" t="n">
-        <v>14.70249554164312</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W3" t="n">
-        <v>14.70249554164312</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X3" t="n">
-        <v>14.70249554164312</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.70249554164312</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C4" t="n">
-        <v>45.33269458673296</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="D4" t="n">
-        <v>45.33269458673296</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="E4" t="n">
-        <v>45.33269458673296</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="F4" t="n">
-        <v>30.01759506418804</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="G4" t="n">
-        <v>14.70249554164312</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="H4" t="n">
-        <v>14.70249554164312</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="I4" t="n">
-        <v>14.70249554164312</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="J4" t="n">
-        <v>1.212955882185558</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="K4" t="n">
         <v>1.212955882185558</v>
@@ -4497,10 +4497,10 @@
         <v>16.22328492423183</v>
       </c>
       <c r="M4" t="n">
-        <v>31.23361396627811</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="N4" t="n">
-        <v>46.24394300832439</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O4" t="n">
         <v>60.64779410927788</v>
@@ -4512,28 +4512,28 @@
         <v>45.33269458673296</v>
       </c>
       <c r="R4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="S4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="V4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="X4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.33269458673296</v>
+        <v>30.01759506418804</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>45.33269458673296</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45.33269458673296</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.33269458673296</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45.33269458673296</v>
+      </c>
+      <c r="F5" t="n">
         <v>31.8431549272754</v>
       </c>
-      <c r="C5" t="n">
-        <v>31.8431549272754</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.8431549272754</v>
-      </c>
-      <c r="E5" t="n">
-        <v>31.8431549272754</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>16.52805540473048</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.212955882185558</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="I5" t="n">
         <v>1.212955882185558</v>
@@ -4570,49 +4570,49 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K5" t="n">
-        <v>16.22328492423183</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="L5" t="n">
-        <v>16.22328492423183</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="M5" t="n">
-        <v>16.22328492423183</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="N5" t="n">
-        <v>25.46633770769475</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="O5" t="n">
-        <v>40.47666674974103</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P5" t="n">
-        <v>55.48699579178731</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="Q5" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="R5" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S5" t="n">
         <v>45.33269458673296</v>
       </c>
       <c r="T5" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U5" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V5" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W5" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X5" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="C6" t="n">
+        <v>47.15825444982032</v>
+      </c>
+      <c r="D6" t="n">
         <v>31.8431549272754</v>
-      </c>
-      <c r="D6" t="n">
-        <v>16.52805540473048</v>
       </c>
       <c r="E6" t="n">
         <v>16.52805540473048</v>
@@ -4649,19 +4649,19 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K6" t="n">
-        <v>1.212955882185558</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="L6" t="n">
-        <v>15.61680698313905</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M6" t="n">
-        <v>15.61680698313905</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N6" t="n">
-        <v>15.61680698313905</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O6" t="n">
-        <v>30.62713602518533</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P6" t="n">
         <v>45.6374650672316</v>
@@ -4670,28 +4670,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="S6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="T6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="U6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="V6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="W6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="X6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.33269458673296</v>
+        <v>31.61113686504564</v>
       </c>
       <c r="C7" t="n">
-        <v>30.01759506418804</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="D7" t="n">
-        <v>14.70249554164312</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="E7" t="n">
-        <v>14.70249554164312</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="F7" t="n">
-        <v>14.70249554164312</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="G7" t="n">
-        <v>14.70249554164312</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="H7" t="n">
-        <v>14.70249554164312</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="I7" t="n">
-        <v>14.70249554164312</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="J7" t="n">
-        <v>1.212955882185558</v>
+        <v>16.29603734250072</v>
       </c>
       <c r="K7" t="n">
         <v>1.212955882185558</v>
@@ -4737,10 +4737,10 @@
         <v>31.23361396627811</v>
       </c>
       <c r="N7" t="n">
-        <v>46.24394300832439</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O7" t="n">
-        <v>55.7803216816043</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P7" t="n">
         <v>60.64779410927788</v>
@@ -4770,7 +4770,7 @@
         <v>45.33269458673296</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.33269458673296</v>
+        <v>31.61113686504564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.79529011874564</v>
+        <v>161.8613777539359</v>
       </c>
       <c r="C8" t="n">
-        <v>56.79529011874564</v>
+        <v>161.8613777539359</v>
       </c>
       <c r="D8" t="n">
-        <v>56.79529011874564</v>
+        <v>161.8613777539359</v>
       </c>
       <c r="E8" t="n">
-        <v>56.79529011874564</v>
+        <v>161.8613777539359</v>
       </c>
       <c r="F8" t="n">
-        <v>49.84978936954217</v>
+        <v>154.9158770047324</v>
       </c>
       <c r="G8" t="n">
-        <v>8.321234140707228</v>
+        <v>113.3873217758986</v>
       </c>
       <c r="H8" t="n">
-        <v>8.321234140707228</v>
+        <v>8.32123414070716</v>
       </c>
       <c r="I8" t="n">
-        <v>8.321234140707228</v>
+        <v>8.32123414070716</v>
       </c>
       <c r="J8" t="n">
-        <v>111.2965066319592</v>
+        <v>111.2965066319583</v>
       </c>
       <c r="K8" t="n">
-        <v>181.4453714793748</v>
+        <v>181.4453714793763</v>
       </c>
       <c r="L8" t="n">
-        <v>212.2687450356063</v>
+        <v>212.2687450356068</v>
       </c>
       <c r="M8" t="n">
-        <v>278.2351245892758</v>
+        <v>278.2351245892752</v>
       </c>
       <c r="N8" t="n">
-        <v>349.882717508683</v>
+        <v>349.8827175086815</v>
       </c>
       <c r="O8" t="n">
-        <v>404.2022465684909</v>
+        <v>404.2022465684884</v>
       </c>
       <c r="P8" t="n">
-        <v>416.0617070353614</v>
+        <v>416.061707035358</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.0617070353614</v>
+        <v>416.061707035358</v>
       </c>
       <c r="R8" t="n">
-        <v>371.9935530243225</v>
+        <v>371.9935530243187</v>
       </c>
       <c r="S8" t="n">
-        <v>371.9935530243225</v>
+        <v>266.9274653891273</v>
       </c>
       <c r="T8" t="n">
-        <v>371.9935530243225</v>
+        <v>266.9274653891273</v>
       </c>
       <c r="U8" t="n">
-        <v>371.9935530243225</v>
+        <v>266.9274653891273</v>
       </c>
       <c r="V8" t="n">
-        <v>266.9274653891302</v>
+        <v>161.8613777539359</v>
       </c>
       <c r="W8" t="n">
-        <v>161.8613777539379</v>
+        <v>161.8613777539359</v>
       </c>
       <c r="X8" t="n">
-        <v>56.79529011874564</v>
+        <v>161.8613777539359</v>
       </c>
       <c r="Y8" t="n">
-        <v>56.79529011874564</v>
+        <v>161.8613777539359</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.321234140707228</v>
+        <v>218.45340941109</v>
       </c>
       <c r="C9" t="n">
-        <v>8.321234140707228</v>
+        <v>113.3873217758986</v>
       </c>
       <c r="D9" t="n">
-        <v>8.321234140707228</v>
+        <v>8.32123414070716</v>
       </c>
       <c r="E9" t="n">
-        <v>8.321234140707228</v>
+        <v>8.32123414070716</v>
       </c>
       <c r="F9" t="n">
-        <v>8.321234140707228</v>
+        <v>8.32123414070716</v>
       </c>
       <c r="G9" t="n">
-        <v>8.321234140707228</v>
+        <v>8.32123414070716</v>
       </c>
       <c r="H9" t="n">
-        <v>8.321234140707228</v>
+        <v>8.32123414070716</v>
       </c>
       <c r="I9" t="n">
-        <v>8.321234140707228</v>
+        <v>8.32123414070716</v>
       </c>
       <c r="J9" t="n">
-        <v>8.321234140707228</v>
+        <v>8.32123414070716</v>
       </c>
       <c r="K9" t="n">
-        <v>16.52325184929717</v>
+        <v>42.33832959979313</v>
       </c>
       <c r="L9" t="n">
-        <v>73.8744180055038</v>
+        <v>99.68949575599909</v>
       </c>
       <c r="M9" t="n">
-        <v>160.1573920023149</v>
+        <v>202.6647682472502</v>
       </c>
       <c r="N9" t="n">
-        <v>263.1326644935668</v>
+        <v>305.6400407385013</v>
       </c>
       <c r="O9" t="n">
-        <v>366.1079369848187</v>
+        <v>377.6225020168641</v>
       </c>
       <c r="P9" t="n">
-        <v>416.0617070353614</v>
+        <v>416.061707035358</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.0617070353614</v>
+        <v>416.061707035358</v>
       </c>
       <c r="R9" t="n">
-        <v>371.6447257081042</v>
+        <v>371.6447257081006</v>
       </c>
       <c r="S9" t="n">
-        <v>371.6447257081042</v>
+        <v>266.5786380729092</v>
       </c>
       <c r="T9" t="n">
-        <v>371.6447257081042</v>
+        <v>266.5786380729092</v>
       </c>
       <c r="U9" t="n">
-        <v>266.5786380729119</v>
+        <v>266.5786380729092</v>
       </c>
       <c r="V9" t="n">
-        <v>161.5125504377197</v>
+        <v>266.5786380729092</v>
       </c>
       <c r="W9" t="n">
-        <v>56.44646280252738</v>
+        <v>266.5786380729092</v>
       </c>
       <c r="X9" t="n">
-        <v>8.321234140707228</v>
+        <v>218.45340941109</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.321234140707228</v>
+        <v>218.45340941109</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.1986877554888</v>
+        <v>393.1986877554852</v>
       </c>
       <c r="C10" t="n">
-        <v>323.5194970462841</v>
+        <v>323.5194970462815</v>
       </c>
       <c r="D10" t="n">
-        <v>218.4534094110918</v>
+        <v>218.45340941109</v>
       </c>
       <c r="E10" t="n">
-        <v>113.3873217758995</v>
+        <v>113.3873217758986</v>
       </c>
       <c r="F10" t="n">
-        <v>8.321234140707228</v>
+        <v>113.3873217758986</v>
       </c>
       <c r="G10" t="n">
-        <v>8.321234140707228</v>
+        <v>113.3873217758986</v>
       </c>
       <c r="H10" t="n">
-        <v>8.321234140707228</v>
+        <v>113.3873217758986</v>
       </c>
       <c r="I10" t="n">
-        <v>8.321234140707228</v>
+        <v>8.32123414070716</v>
       </c>
       <c r="J10" t="n">
-        <v>8.321234140707228</v>
+        <v>8.32123414070716</v>
       </c>
       <c r="K10" t="n">
-        <v>73.53581884437527</v>
+        <v>73.5358188443749</v>
       </c>
       <c r="L10" t="n">
-        <v>176.5110913356272</v>
+        <v>107.1358895616047</v>
       </c>
       <c r="M10" t="n">
-        <v>176.5110913356272</v>
+        <v>210.1111620528558</v>
       </c>
       <c r="N10" t="n">
-        <v>224.9414260552272</v>
+        <v>313.0864345441069</v>
       </c>
       <c r="O10" t="n">
-        <v>327.9166985464792</v>
+        <v>416.061707035358</v>
       </c>
       <c r="P10" t="n">
-        <v>416.0617070353614</v>
+        <v>416.061707035358</v>
       </c>
       <c r="Q10" t="n">
-        <v>393.1986877554888</v>
+        <v>393.1986877554852</v>
       </c>
       <c r="R10" t="n">
-        <v>393.1986877554888</v>
+        <v>393.1986877554852</v>
       </c>
       <c r="S10" t="n">
-        <v>393.1986877554888</v>
+        <v>393.1986877554852</v>
       </c>
       <c r="T10" t="n">
-        <v>393.1986877554888</v>
+        <v>393.1986877554852</v>
       </c>
       <c r="U10" t="n">
-        <v>393.1986877554888</v>
+        <v>393.1986877554852</v>
       </c>
       <c r="V10" t="n">
-        <v>393.1986877554888</v>
+        <v>393.1986877554852</v>
       </c>
       <c r="W10" t="n">
-        <v>393.1986877554888</v>
+        <v>393.1986877554852</v>
       </c>
       <c r="X10" t="n">
-        <v>393.1986877554888</v>
+        <v>393.1986877554852</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.1986877554888</v>
+        <v>393.1986877554852</v>
       </c>
     </row>
     <row r="11">
@@ -5023,43 +5023,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,16 +5281,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>954.2476448606602</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>785.3114619327533</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>635.1948225204176</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>487.2817289380245</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5606,10 +5606,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5843,10 +5843,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6317,10 +6317,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6554,10 +6554,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6603,16 +6603,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,19 +6715,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,10 +6791,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,19 +7019,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>449.4852666057155</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>301.5721730233224</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>301.5721730233224</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,37 +7426,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7502,10 +7502,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7654,7 +7654,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7687,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7736,10 +7736,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>217.342912363454</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L2" t="n">
-        <v>228.7108053025997</v>
+        <v>228.0982013216979</v>
       </c>
       <c r="M2" t="n">
         <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>204.2917325281876</v>
+        <v>219.453681055507</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9261953972922</v>
+        <v>221.538799378194</v>
       </c>
       <c r="P2" t="n">
         <v>226.149311848474</v>
       </c>
       <c r="Q2" t="n">
-        <v>207.1020630664798</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>140.8394464083196</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>137.3604083836059</v>
       </c>
       <c r="M3" t="n">
         <v>123.047446830095</v>
@@ -8072,10 +8072,10 @@
         <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8526396814495</v>
+        <v>139.2229632339716</v>
       </c>
       <c r="P3" t="n">
-        <v>134.7518686851471</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
         <v>145.5280738211766</v>
@@ -8145,13 +8145,13 @@
         <v>140.6574822216631</v>
       </c>
       <c r="M4" t="n">
-        <v>144.1881980719757</v>
+        <v>143.5755940910739</v>
       </c>
       <c r="N4" t="n">
         <v>133.1833473911586</v>
       </c>
       <c r="O4" t="n">
-        <v>144.0794803480808</v>
+        <v>144.6920843289826</v>
       </c>
       <c r="P4" t="n">
         <v>130.0899244982092</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>217.342912363454</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>228.0982013216979</v>
       </c>
       <c r="M5" t="n">
-        <v>205.6249188705004</v>
+        <v>220.7868673978199</v>
       </c>
       <c r="N5" t="n">
-        <v>213.6281494811804</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
         <v>221.538799378194</v>
@@ -8236,7 +8236,7 @@
         <v>226.149311848474</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,22 +8297,22 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>140.8394464083196</v>
       </c>
       <c r="L6" t="n">
-        <v>136.7478044027041</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>138.2093953574145</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>126.2993043714169</v>
       </c>
       <c r="O6" t="n">
-        <v>139.8355672148734</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>134.7518686851471</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
         <v>145.5280738211766</v>
@@ -8385,13 +8385,13 @@
         <v>144.1881980719757</v>
       </c>
       <c r="N7" t="n">
-        <v>133.1833473911586</v>
+        <v>132.5707434102568</v>
       </c>
       <c r="O7" t="n">
-        <v>139.1628415322489</v>
+        <v>144.6920843289826</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>141.5136528228966</v>
+        <v>141.5136528228963</v>
       </c>
       <c r="K8" t="n">
-        <v>75.80653116621215</v>
+        <v>75.80653116621532</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.6634198842425</v>
+        <v>39.66341988424315</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>41.34161277437065</v>
+        <v>41.34161277437094</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>26.07583611161266</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>16.86090757014227</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>31.3058699120085</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>11.63087376974564</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.46828871758997</v>
+        <v>24.46828871759038</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>126.1076531206124</v>
+        <v>56.03169173271156</v>
       </c>
       <c r="M10" t="n">
-        <v>20.00196017596777</v>
+        <v>124.0173869348077</v>
       </c>
       <c r="N10" t="n">
-        <v>60.50899343486752</v>
+        <v>115.6048901739094</v>
       </c>
       <c r="O10" t="n">
-        <v>135.2384436656262</v>
+        <v>135.2384436656257</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>45.97120120405937</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>35.11263957635599</v>
       </c>
       <c r="F13" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>142.9753202488375</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>21.62386594322854</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>775401.41223708</v>
+        <v>775401.4122370802</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>754539.8762584156</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442545</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38828.0597816594</v>
+        <v>38828.05978165939</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>357912.3110366695</v>
+        <v>357912.311036668</v>
       </c>
       <c r="E3" t="n">
-        <v>1080121.758724493</v>
+        <v>1080121.758724494</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22488.01565909385</v>
+        <v>22488.01565909375</v>
       </c>
       <c r="M3" t="n">
-        <v>266322.5358175747</v>
+        <v>266322.5358175748</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>405703.6705393202</v>
       </c>
       <c r="D4" t="n">
-        <v>310629.0408162408</v>
+        <v>310629.0408162412</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
@@ -26435,22 +26435,22 @@
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744235</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744342</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
@@ -26459,7 +26459,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744311</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>35312.90995413795</v>
       </c>
       <c r="D5" t="n">
-        <v>49123.28007136615</v>
+        <v>49123.28007136606</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>197514.8198629158</v>
+        <v>197514.819862916</v>
       </c>
       <c r="C6" t="n">
-        <v>236342.8796445753</v>
+        <v>236342.8796445757</v>
       </c>
       <c r="D6" t="n">
-        <v>-40305.1717862429</v>
+        <v>-40305.17178624136</v>
       </c>
       <c r="E6" t="n">
-        <v>-524422.9794502463</v>
+        <v>-524110.3381213268</v>
       </c>
       <c r="F6" t="n">
-        <v>555698.7792742465</v>
+        <v>556011.4206031677</v>
       </c>
       <c r="G6" t="n">
-        <v>555698.7792742465</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="H6" t="n">
-        <v>555698.7792742465</v>
+        <v>556011.4206031677</v>
       </c>
       <c r="I6" t="n">
-        <v>555698.7792742463</v>
+        <v>556011.4206031677</v>
       </c>
       <c r="J6" t="n">
-        <v>551731.7464137645</v>
+        <v>552044.3877426855</v>
       </c>
       <c r="K6" t="n">
-        <v>555698.7792742464</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="L6" t="n">
-        <v>533210.7636151526</v>
+        <v>533523.4049440741</v>
       </c>
       <c r="M6" t="n">
-        <v>289376.2434566718</v>
+        <v>289688.884785593</v>
       </c>
       <c r="N6" t="n">
-        <v>555698.7792742464</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="O6" t="n">
-        <v>555698.7792742469</v>
+        <v>556011.4206031676</v>
       </c>
       <c r="P6" t="n">
-        <v>555698.7792742464</v>
+        <v>556011.420603168</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.759117484649431e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="C3" t="n">
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>420.712941487553</v>
+        <v>420.7129414875515</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="D4" t="n">
-        <v>104.0154267588403</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.759117484649431e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912532</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>385.6916807684277</v>
+        <v>385.6916807684262</v>
       </c>
       <c r="E3" t="n">
-        <v>947.2625588541205</v>
+        <v>947.2625588541223</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.85347823152088</v>
+        <v>88.85347823152004</v>
       </c>
       <c r="E4" t="n">
-        <v>1068.692861340808</v>
+        <v>1068.692861340809</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152088</v>
+        <v>88.8534782315205</v>
       </c>
       <c r="M4" t="n">
         <v>1068.692861340808</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.759117484649431e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152088</v>
+        <v>88.85347823152004</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.692861340808</v>
+        <v>1068.692861340809</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>339.5210930933635</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>331.5543483731493</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>125.8633331579598</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27438,10 +27438,10 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>321.2736599489834</v>
+        <v>312.5903099428155</v>
       </c>
       <c r="W2" t="n">
-        <v>334.0790201900936</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.1785393870043</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>159.3538547254527</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>132.2831170373193</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>142.4831319280815</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>80.3188953730601</v>
       </c>
       <c r="S3" t="n">
-        <v>155.1220240940137</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>184.6991524448524</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>153.6624789541574</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.2590994956118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>152.7658777380392</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27560,10 +27560,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>75.5396121716354</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>65.71188435578699</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>159.2918501364599</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>391.714097214392</v>
+        <v>393.5214014788485</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>189.8861735903263</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>125.8633331579598</v>
       </c>
       <c r="S5" t="n">
-        <v>190.6498919990783</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1249015071057</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
@@ -27703,7 +27703,7 @@
         <v>132.2831170373193</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>142.4831319280815</v>
       </c>
       <c r="F6" t="n">
         <v>129.9072638660644</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>80.3188953730601</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27779,7 +27779,7 @@
         <v>152.0848725713084</v>
       </c>
       <c r="D7" t="n">
-        <v>133.4535244908929</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,10 +27797,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>75.5396121716354</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>205.0003112076243</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>372.4981595311008</v>
+        <v>372.4981595311019</v>
       </c>
       <c r="H8" t="n">
-        <v>322.1536909117092</v>
+        <v>218.1382641528698</v>
       </c>
       <c r="I8" t="n">
-        <v>145.2717260459883</v>
+        <v>145.2717260459885</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>170.4793815293705</v>
+        <v>66.46395477053113</v>
       </c>
       <c r="T8" t="n">
         <v>215.6921474481042</v>
@@ -27912,13 +27912,13 @@
         <v>251.2103482432375</v>
       </c>
       <c r="V8" t="n">
-        <v>223.7368317112945</v>
+        <v>223.7368317112954</v>
       </c>
       <c r="W8" t="n">
-        <v>245.2255419585726</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>265.7156739196287</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,10 +27934,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>68.69307222947623</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>43.42963880579924</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27949,10 +27949,10 @@
         <v>136.438587440011</v>
       </c>
       <c r="H9" t="n">
-        <v>103.4957282255946</v>
+        <v>103.4957282255947</v>
       </c>
       <c r="I9" t="n">
-        <v>58.24006124125195</v>
+        <v>58.24006124125206</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>154.8744983944059</v>
+        <v>50.85907163556644</v>
       </c>
       <c r="T9" t="n">
         <v>196.5172268719248</v>
       </c>
       <c r="U9" t="n">
-        <v>121.866420471924</v>
+        <v>225.8818472307643</v>
       </c>
       <c r="V9" t="n">
-        <v>128.7851603905849</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>147.6795564020792</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>158.1290088282755</v>
+        <v>158.1290088282765</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>98.26442229651518</v>
+        <v>98.26442229651614</v>
       </c>
       <c r="D10" t="n">
-        <v>44.60004625937201</v>
+        <v>44.60004625937285</v>
       </c>
       <c r="E10" t="n">
-        <v>42.41853588772882</v>
+        <v>42.41853588772966</v>
       </c>
       <c r="F10" t="n">
-        <v>41.4056212640909</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.2323166770878</v>
@@ -28031,10 +28031,10 @@
         <v>155.4819715767047</v>
       </c>
       <c r="I10" t="n">
-        <v>132.6354190183923</v>
+        <v>28.61999225955286</v>
       </c>
       <c r="J10" t="n">
-        <v>39.72172854374328</v>
+        <v>39.72172854374347</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>143.1811584493427</v>
+        <v>143.1811584493428</v>
       </c>
       <c r="S10" t="n">
         <v>210.7951765807159</v>
@@ -30759,7 +30759,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M2" t="n">
         <v>24.72131435677232</v>
@@ -31074,16 +31074,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31141,7 +31141,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31150,19 +31150,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,43 +31199,43 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
         <v>0.2698359432457196</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.691308307487649</v>
+        <v>1.691308307487643</v>
       </c>
       <c r="H8" t="n">
-        <v>17.32111120405789</v>
+        <v>17.32111120405783</v>
       </c>
       <c r="I8" t="n">
-        <v>65.20416352441765</v>
+        <v>65.20416352441742</v>
       </c>
       <c r="J8" t="n">
-        <v>143.54767846263</v>
+        <v>143.5476784626295</v>
       </c>
       <c r="K8" t="n">
-        <v>215.1407591185822</v>
+        <v>215.1407591185814</v>
       </c>
       <c r="L8" t="n">
-        <v>266.9011357338574</v>
+        <v>266.9011357338564</v>
       </c>
       <c r="M8" t="n">
-        <v>296.9789398471409</v>
+        <v>296.9789398471398</v>
       </c>
       <c r="N8" t="n">
-        <v>301.7843695757902</v>
+        <v>301.7843695757891</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9664225932098</v>
+        <v>284.9664225932088</v>
       </c>
       <c r="P8" t="n">
-        <v>243.2122487521085</v>
+        <v>243.2122487521076</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.642269990207</v>
+        <v>182.6422699902063</v>
       </c>
       <c r="R8" t="n">
-        <v>106.2416454702211</v>
+        <v>106.2416454702207</v>
       </c>
       <c r="S8" t="n">
-        <v>38.54068805687484</v>
+        <v>38.54068805687471</v>
       </c>
       <c r="T8" t="n">
-        <v>7.403702116027187</v>
+        <v>7.403702116027161</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1353046645990119</v>
+        <v>0.1353046645990114</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9049297231996424</v>
+        <v>0.9049297231996392</v>
       </c>
       <c r="H9" t="n">
-        <v>8.739716010901811</v>
+        <v>8.739716010901779</v>
       </c>
       <c r="I9" t="n">
-        <v>31.15657161016313</v>
+        <v>31.15657161016302</v>
       </c>
       <c r="J9" t="n">
-        <v>85.49601389229605</v>
+        <v>85.49601389229575</v>
       </c>
       <c r="K9" t="n">
-        <v>146.1263053466721</v>
+        <v>146.1263053466716</v>
       </c>
       <c r="L9" t="n">
-        <v>196.4848506447294</v>
+        <v>196.4848506447287</v>
       </c>
       <c r="M9" t="n">
-        <v>229.2885531107164</v>
+        <v>229.2885531107156</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3571388421736</v>
+        <v>235.3571388421728</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3058012912763</v>
+        <v>215.3058012912755</v>
       </c>
       <c r="P9" t="n">
-        <v>172.8018872309914</v>
+        <v>172.8018872309908</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.5134853684315</v>
+        <v>115.5134853684311</v>
       </c>
       <c r="R9" t="n">
-        <v>56.18502263865852</v>
+        <v>56.18502263865832</v>
       </c>
       <c r="S9" t="n">
-        <v>16.80867270943194</v>
+        <v>16.80867270943188</v>
       </c>
       <c r="T9" t="n">
-        <v>3.647501822896802</v>
+        <v>3.64750182289679</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05953485021050281</v>
+        <v>0.0595348502105026</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7586626813709971</v>
+        <v>0.7586626813709945</v>
       </c>
       <c r="H10" t="n">
-        <v>6.74520093073487</v>
+        <v>6.745200930734846</v>
       </c>
       <c r="I10" t="n">
-        <v>22.81505590886599</v>
+        <v>22.81505590886591</v>
       </c>
       <c r="J10" t="n">
-        <v>53.63745157292949</v>
+        <v>53.63745157292931</v>
       </c>
       <c r="K10" t="n">
-        <v>88.14280970837582</v>
+        <v>88.14280970837552</v>
       </c>
       <c r="L10" t="n">
-        <v>112.7924499194663</v>
+        <v>112.7924499194659</v>
       </c>
       <c r="M10" t="n">
-        <v>118.9238237716373</v>
+        <v>118.9238237716369</v>
       </c>
       <c r="N10" t="n">
-        <v>116.0960810501637</v>
+        <v>116.0960810501633</v>
       </c>
       <c r="O10" t="n">
-        <v>107.233521545057</v>
+        <v>107.2335215450566</v>
       </c>
       <c r="P10" t="n">
-        <v>91.75680284508856</v>
+        <v>91.75680284508825</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.5276541646205</v>
+        <v>63.52765416462028</v>
       </c>
       <c r="R10" t="n">
-        <v>34.11223292782682</v>
+        <v>34.1122329278267</v>
       </c>
       <c r="S10" t="n">
-        <v>13.22142145625637</v>
+        <v>13.22142145625633</v>
       </c>
       <c r="T10" t="n">
-        <v>3.24155872949426</v>
+        <v>3.241558729494248</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04138160080205443</v>
+        <v>0.04138160080205429</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>401.521336481369</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14.54934454641767</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>14.54934454641767</v>
       </c>
       <c r="P2" t="n">
         <v>15.16194852731947</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.179020993895534</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="P3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>15.16194852731947</v>
@@ -34865,13 +34865,13 @@
         <v>15.16194852731947</v>
       </c>
       <c r="M4" t="n">
-        <v>15.16194852731947</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="N4" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="O4" t="n">
-        <v>14.54934454641767</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14.54934454641767</v>
+      </c>
+      <c r="M5" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>9.336416952992847</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>15.16194852731947</v>
@@ -34956,7 +34956,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="N6" t="n">
         <v>14.54934454641767</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>15.16194852731947</v>
@@ -35105,13 +35105,13 @@
         <v>15.16194852731947</v>
       </c>
       <c r="N7" t="n">
+        <v>14.54934454641767</v>
+      </c>
+      <c r="O7" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="O7" t="n">
-        <v>9.632705730585771</v>
-      </c>
       <c r="P7" t="n">
-        <v>4.916638815831901</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>104.0154267588403</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="K8" t="n">
-        <v>70.8574392398138</v>
+        <v>70.8574392398162</v>
       </c>
       <c r="L8" t="n">
-        <v>31.13472076387018</v>
+        <v>31.13472076386921</v>
       </c>
       <c r="M8" t="n">
-        <v>66.63270661986812</v>
+        <v>66.63270661986709</v>
       </c>
       <c r="N8" t="n">
-        <v>72.37130597919924</v>
+        <v>72.37130597919821</v>
       </c>
       <c r="O8" t="n">
-        <v>54.86821117152309</v>
+        <v>54.86821117152212</v>
       </c>
       <c r="P8" t="n">
-        <v>11.97925299683891</v>
+        <v>11.97925299683806</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>8.284866372313076</v>
+        <v>34.36070248392522</v>
       </c>
       <c r="L9" t="n">
-        <v>57.93047086485518</v>
+        <v>57.9304708648545</v>
       </c>
       <c r="M9" t="n">
-        <v>87.15451918869803</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="N9" t="n">
-        <v>104.0154267588403</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="O9" t="n">
-        <v>104.0154267588403</v>
+        <v>72.70955684683111</v>
       </c>
       <c r="P9" t="n">
-        <v>50.45835358640675</v>
+        <v>38.82747981666051</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>65.87331788249297</v>
+        <v>65.87331788249267</v>
       </c>
       <c r="L10" t="n">
-        <v>104.0154267588403</v>
+        <v>33.93946537093915</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="N10" t="n">
-        <v>48.91953001979799</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="O10" t="n">
-        <v>104.0154267588403</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="P10" t="n">
-        <v>89.03536210998205</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37554,13 +37554,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>263.67989750701</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
